--- a/sensorMap.xlsx
+++ b/sensorMap.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="38">
   <si>
     <t>mean</t>
   </si>
@@ -39,6 +39,105 @@
   </si>
   <si>
     <t>wavl</t>
+  </si>
+  <si>
+    <t>TA</t>
+  </si>
+  <si>
+    <t>Posterior</t>
+  </si>
+  <si>
+    <t>mid</t>
+  </si>
+  <si>
+    <t>shank</t>
+  </si>
+  <si>
+    <t>SOL</t>
+  </si>
+  <si>
+    <t>MedGas</t>
+  </si>
+  <si>
+    <t>Vastus</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rectus </t>
+  </si>
+  <si>
+    <t>Medialis</t>
+  </si>
+  <si>
+    <t>Femoris</t>
+  </si>
+  <si>
+    <t>Biceps</t>
+  </si>
+  <si>
+    <t>Long Head</t>
+  </si>
+  <si>
+    <t>Lateral</t>
+  </si>
+  <si>
+    <t>Upper</t>
+  </si>
+  <si>
+    <t>Shank</t>
+  </si>
+  <si>
+    <t>Distal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">to </t>
+  </si>
+  <si>
+    <t>Bottom</t>
+  </si>
+  <si>
+    <t>of</t>
+  </si>
+  <si>
+    <t>Foot</t>
+  </si>
+  <si>
+    <t>Lateralis</t>
+  </si>
+  <si>
+    <t>Adductor</t>
+  </si>
+  <si>
+    <t>Magnus</t>
+  </si>
+  <si>
+    <t>lateral</t>
+  </si>
+  <si>
+    <t>hamstring</t>
+  </si>
+  <si>
+    <t>latae</t>
+  </si>
+  <si>
+    <t>side</t>
+  </si>
+  <si>
+    <t>abdominal</t>
+  </si>
+  <si>
+    <t>tensor</t>
+  </si>
+  <si>
+    <t>fasciae</t>
+  </si>
+  <si>
+    <t>distal</t>
+  </si>
+  <si>
+    <t>vastus</t>
+  </si>
+  <si>
+    <t>lateralis</t>
   </si>
 </sst>
 </file>
@@ -432,11 +531,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B80"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A53" workbookViewId="0">
-      <selection activeCell="A67" sqref="A67"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A80" sqref="A80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="10.140625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1">
@@ -447,6 +549,9 @@
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>5</v>
+      </c>
       <c r="B2" s="2" t="s">
         <v>1</v>
       </c>
@@ -475,16 +580,25 @@
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>6</v>
+      </c>
       <c r="B7" s="2" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>7</v>
+      </c>
       <c r="B8" s="2" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>8</v>
+      </c>
       <c r="B9" s="2" t="s">
         <v>3</v>
       </c>
@@ -503,6 +617,9 @@
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>9</v>
+      </c>
       <c r="B12" s="2" t="s">
         <v>1</v>
       </c>
@@ -531,6 +648,9 @@
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>10</v>
+      </c>
       <c r="B17" s="2" t="s">
         <v>1</v>
       </c>
@@ -559,11 +679,17 @@
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>11</v>
+      </c>
       <c r="B22" s="2" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>13</v>
+      </c>
       <c r="B23" s="2" t="s">
         <v>2</v>
       </c>
@@ -587,11 +713,17 @@
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>12</v>
+      </c>
       <c r="B27" s="2" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>14</v>
+      </c>
       <c r="B28" s="2" t="s">
         <v>2</v>
       </c>
@@ -615,16 +747,25 @@
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>15</v>
+      </c>
       <c r="B32" s="2" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>14</v>
+      </c>
       <c r="B33" s="2" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>16</v>
+      </c>
       <c r="B34" s="2" t="s">
         <v>3</v>
       </c>
@@ -643,16 +784,25 @@
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>17</v>
+      </c>
       <c r="B37" s="2" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>18</v>
+      </c>
       <c r="B38" s="2" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>19</v>
+      </c>
       <c r="B39" s="2" t="s">
         <v>3</v>
       </c>
@@ -671,16 +821,25 @@
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>20</v>
+      </c>
       <c r="B42" s="2" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>21</v>
+      </c>
       <c r="B43" s="2" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>5</v>
+      </c>
       <c r="B44" s="2" t="s">
         <v>3</v>
       </c>
@@ -699,16 +858,25 @@
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>22</v>
+      </c>
       <c r="B47" s="2" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>23</v>
+      </c>
       <c r="B48" s="2" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>24</v>
+      </c>
       <c r="B49" s="2" t="s">
         <v>3</v>
       </c>
@@ -727,11 +895,17 @@
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>11</v>
+      </c>
       <c r="B52" s="2" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>25</v>
+      </c>
       <c r="B53" s="2" t="s">
         <v>2</v>
       </c>
@@ -755,11 +929,17 @@
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>26</v>
+      </c>
       <c r="B57" s="2" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>27</v>
+      </c>
       <c r="B58" s="2" t="s">
         <v>2</v>
       </c>
@@ -783,16 +963,25 @@
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>18</v>
+      </c>
       <c r="B62" s="2" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>28</v>
+      </c>
       <c r="B63" s="2" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>29</v>
+      </c>
       <c r="B64" s="2" t="s">
         <v>3</v>
       </c>
@@ -811,11 +1000,17 @@
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>31</v>
+      </c>
       <c r="B67" s="2" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>32</v>
+      </c>
       <c r="B68" s="2" t="s">
         <v>2</v>
       </c>
@@ -839,16 +1034,25 @@
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>33</v>
+      </c>
       <c r="B72" s="2" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>34</v>
+      </c>
       <c r="B73" s="2" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>30</v>
+      </c>
       <c r="B74" s="2" t="s">
         <v>3</v>
       </c>
@@ -867,16 +1071,25 @@
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>35</v>
+      </c>
       <c r="B77" s="2" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>36</v>
+      </c>
       <c r="B78" s="2" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>37</v>
+      </c>
       <c r="B79" s="2" t="s">
         <v>3</v>
       </c>
